--- a/data/pca/factorExposure/factorExposure_2012-01-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-01-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01732166749252926</v>
+        <v>0.01648312970303318</v>
       </c>
       <c r="C2">
-        <v>-0.03187740610687202</v>
+        <v>0.02637696898757317</v>
       </c>
       <c r="D2">
-        <v>-0.01455720815080401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01312450429781997</v>
+      </c>
+      <c r="E2">
+        <v>-0.01306762331823863</v>
+      </c>
+      <c r="F2">
+        <v>-0.01492434803432072</v>
+      </c>
+      <c r="G2">
+        <v>-0.0114200435167217</v>
+      </c>
+      <c r="H2">
+        <v>0.05170965120714528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07409385711529083</v>
+        <v>0.08775191308734998</v>
       </c>
       <c r="C4">
-        <v>-0.05384044877667179</v>
+        <v>0.04132693296613055</v>
       </c>
       <c r="D4">
-        <v>-0.08087641984206474</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06604492149703482</v>
+      </c>
+      <c r="E4">
+        <v>-0.009231929064804509</v>
+      </c>
+      <c r="F4">
+        <v>-0.03577238682864212</v>
+      </c>
+      <c r="G4">
+        <v>-0.004445857455494513</v>
+      </c>
+      <c r="H4">
+        <v>-0.03760881115078202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1096961453175268</v>
+        <v>0.1195683551738327</v>
       </c>
       <c r="C6">
-        <v>-0.05090590228049485</v>
+        <v>0.03490028932195727</v>
       </c>
       <c r="D6">
-        <v>-0.003692795898367913</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01316845049857367</v>
+      </c>
+      <c r="E6">
+        <v>0.02070461867808694</v>
+      </c>
+      <c r="F6">
+        <v>-0.05433471608563145</v>
+      </c>
+      <c r="G6">
+        <v>-0.03748127065886139</v>
+      </c>
+      <c r="H6">
+        <v>0.1146099117174928</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05257091363237455</v>
+        <v>0.06437574586331112</v>
       </c>
       <c r="C7">
-        <v>-0.02421596511438373</v>
+        <v>0.01523375166870014</v>
       </c>
       <c r="D7">
-        <v>-0.04395176513312581</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04590392177575962</v>
+      </c>
+      <c r="E7">
+        <v>-0.03670976050105124</v>
+      </c>
+      <c r="F7">
+        <v>-0.03854086431853392</v>
+      </c>
+      <c r="G7">
+        <v>0.03632843500992061</v>
+      </c>
+      <c r="H7">
+        <v>-0.005766550949445863</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.04000254969945707</v>
+        <v>0.0416991366153312</v>
       </c>
       <c r="C8">
-        <v>-0.01436139460868825</v>
+        <v>0.01039558732020275</v>
       </c>
       <c r="D8">
-        <v>-0.06336576554699645</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02557039100282053</v>
+      </c>
+      <c r="E8">
+        <v>-0.02080954681138606</v>
+      </c>
+      <c r="F8">
+        <v>-0.05767583020004816</v>
+      </c>
+      <c r="G8">
+        <v>-0.05537262957559423</v>
+      </c>
+      <c r="H8">
+        <v>0.0003781634643517045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06903529902897836</v>
+        <v>0.07955800248974207</v>
       </c>
       <c r="C9">
-        <v>-0.04032519265021084</v>
+        <v>0.02809683643696194</v>
       </c>
       <c r="D9">
-        <v>-0.07077952060644783</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0626925558274629</v>
+      </c>
+      <c r="E9">
+        <v>-0.02890174414635751</v>
+      </c>
+      <c r="F9">
+        <v>-0.03539092262686763</v>
+      </c>
+      <c r="G9">
+        <v>-0.008976864438482711</v>
+      </c>
+      <c r="H9">
+        <v>-0.05186917454737389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03078560010872166</v>
+        <v>0.03446029012920337</v>
       </c>
       <c r="C10">
-        <v>-0.02406532753891355</v>
+        <v>0.04198558916350519</v>
       </c>
       <c r="D10">
-        <v>0.1685384289574314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1700119575879804</v>
+      </c>
+      <c r="E10">
+        <v>-0.03715959935506174</v>
+      </c>
+      <c r="F10">
+        <v>-0.04999685903704813</v>
+      </c>
+      <c r="G10">
+        <v>0.02231420485278721</v>
+      </c>
+      <c r="H10">
+        <v>0.03100163823206829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07283533698131422</v>
+        <v>0.07726257088350448</v>
       </c>
       <c r="C11">
-        <v>-0.04345476299543207</v>
+        <v>0.02562612987340304</v>
       </c>
       <c r="D11">
-        <v>-0.05798723387662159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06272175522260127</v>
+      </c>
+      <c r="E11">
+        <v>0.005097691988314679</v>
+      </c>
+      <c r="F11">
+        <v>-0.02910404726581337</v>
+      </c>
+      <c r="G11">
+        <v>-0.001252695749836307</v>
+      </c>
+      <c r="H11">
+        <v>-0.09003179733667413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06062965518561345</v>
+        <v>0.06911806891734114</v>
       </c>
       <c r="C12">
-        <v>-0.05178710001940953</v>
+        <v>0.03712956531043764</v>
       </c>
       <c r="D12">
-        <v>-0.04920828654391348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04943289434900934</v>
+      </c>
+      <c r="E12">
+        <v>-0.01268033693306475</v>
+      </c>
+      <c r="F12">
+        <v>-0.02159595472798924</v>
+      </c>
+      <c r="G12">
+        <v>-0.002190550798186333</v>
+      </c>
+      <c r="H12">
+        <v>-0.04417329290328936</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06208454479284597</v>
+        <v>0.06558345075196205</v>
       </c>
       <c r="C13">
-        <v>-0.03233711101668243</v>
+        <v>0.01943828909350291</v>
       </c>
       <c r="D13">
-        <v>-0.06219958408978606</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04240816334202594</v>
+      </c>
+      <c r="E13">
+        <v>-0.01435967537236239</v>
+      </c>
+      <c r="F13">
+        <v>-0.01119761307353732</v>
+      </c>
+      <c r="G13">
+        <v>0.007244348770500637</v>
+      </c>
+      <c r="H13">
+        <v>-0.05417403015716563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03291903939712568</v>
+        <v>0.04043822997630933</v>
       </c>
       <c r="C14">
-        <v>-0.03089903346961073</v>
+        <v>0.02867379478804924</v>
       </c>
       <c r="D14">
-        <v>-0.004385302915566055</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01064467576400729</v>
+      </c>
+      <c r="E14">
+        <v>-0.03212047730912076</v>
+      </c>
+      <c r="F14">
+        <v>-0.01453159023810626</v>
+      </c>
+      <c r="G14">
+        <v>-0.007924235325443551</v>
+      </c>
+      <c r="H14">
+        <v>-0.05986717564101136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04073523135498408</v>
+        <v>0.0404390903313956</v>
       </c>
       <c r="C15">
-        <v>-0.00914577751860781</v>
+        <v>0.003442914954045042</v>
       </c>
       <c r="D15">
-        <v>-0.0194343765358319</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.005808103893083264</v>
+      </c>
+      <c r="E15">
+        <v>-0.0353216100035008</v>
+      </c>
+      <c r="F15">
+        <v>0.000266153722778018</v>
+      </c>
+      <c r="G15">
+        <v>-0.02421546667176195</v>
+      </c>
+      <c r="H15">
+        <v>-0.03407489139154936</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06185514375471133</v>
+        <v>0.07164642998834107</v>
       </c>
       <c r="C16">
-        <v>-0.04079444703791766</v>
+        <v>0.02763885902644109</v>
       </c>
       <c r="D16">
-        <v>-0.0481580906291258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06076784858454956</v>
+      </c>
+      <c r="E16">
+        <v>-0.003491026767644882</v>
+      </c>
+      <c r="F16">
+        <v>-0.02770567646331135</v>
+      </c>
+      <c r="G16">
+        <v>0.003310796969879146</v>
+      </c>
+      <c r="H16">
+        <v>-0.05718167997225009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06222714257373831</v>
+        <v>0.06337531164581717</v>
       </c>
       <c r="C20">
-        <v>-0.02436664117267092</v>
+        <v>0.01022510527946156</v>
       </c>
       <c r="D20">
-        <v>-0.05184534595584697</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03910104372642663</v>
+      </c>
+      <c r="E20">
+        <v>-0.01761823581728518</v>
+      </c>
+      <c r="F20">
+        <v>-0.02670850609672382</v>
+      </c>
+      <c r="G20">
+        <v>-0.01481388890624573</v>
+      </c>
+      <c r="H20">
+        <v>-0.04925800557685117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02608042487574834</v>
+        <v>0.0260981791617106</v>
       </c>
       <c r="C21">
-        <v>0.002786853603219249</v>
+        <v>-0.009532191899968014</v>
       </c>
       <c r="D21">
-        <v>-0.0286451351295367</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0251820378130315</v>
+      </c>
+      <c r="E21">
+        <v>-0.04508336981696424</v>
+      </c>
+      <c r="F21">
+        <v>0.0131548041649734</v>
+      </c>
+      <c r="G21">
+        <v>-0.01099824375354113</v>
+      </c>
+      <c r="H21">
+        <v>0.05549888601602878</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07883714512335284</v>
+        <v>0.07283664973464096</v>
       </c>
       <c r="C22">
-        <v>-0.06016692582858394</v>
+        <v>0.03830301994603665</v>
       </c>
       <c r="D22">
-        <v>-0.1217609339877133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.08368092828788611</v>
+      </c>
+      <c r="E22">
+        <v>-0.6008292220360785</v>
+      </c>
+      <c r="F22">
+        <v>0.1531849880734432</v>
+      </c>
+      <c r="G22">
+        <v>0.0714875050062949</v>
+      </c>
+      <c r="H22">
+        <v>0.1689297617222779</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07978014756415673</v>
+        <v>0.07357529174605222</v>
       </c>
       <c r="C23">
-        <v>-0.05887554108259177</v>
+        <v>0.03674144175564754</v>
       </c>
       <c r="D23">
-        <v>-0.123315156476336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.08462103715510433</v>
+      </c>
+      <c r="E23">
+        <v>-0.6001164473196804</v>
+      </c>
+      <c r="F23">
+        <v>0.1522096632087929</v>
+      </c>
+      <c r="G23">
+        <v>0.07027415142032339</v>
+      </c>
+      <c r="H23">
+        <v>0.1646792877367046</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07426194857579159</v>
+        <v>0.08067278171292966</v>
       </c>
       <c r="C24">
-        <v>-0.05112477976559054</v>
+        <v>0.03397697436413456</v>
       </c>
       <c r="D24">
-        <v>-0.06062128912631891</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06138602183541992</v>
+      </c>
+      <c r="E24">
+        <v>-0.01734930152664078</v>
+      </c>
+      <c r="F24">
+        <v>-0.03648104844807149</v>
+      </c>
+      <c r="G24">
+        <v>-0.01384629693921284</v>
+      </c>
+      <c r="H24">
+        <v>-0.05125357492024121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07422028744922625</v>
+        <v>0.07908407714395638</v>
       </c>
       <c r="C25">
-        <v>-0.0545610548153351</v>
+        <v>0.0370789610375041</v>
       </c>
       <c r="D25">
-        <v>-0.06735008816203376</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05306647940717344</v>
+      </c>
+      <c r="E25">
+        <v>-0.01940313285101168</v>
+      </c>
+      <c r="F25">
+        <v>-0.02735140448523931</v>
+      </c>
+      <c r="G25">
+        <v>-0.0205307197833893</v>
+      </c>
+      <c r="H25">
+        <v>-0.05728849436210387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04595945980392821</v>
+        <v>0.04741864263784359</v>
       </c>
       <c r="C26">
-        <v>-0.009541845342052635</v>
+        <v>0.002260114706454399</v>
       </c>
       <c r="D26">
-        <v>-0.0121189980775723</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01802989355419335</v>
+      </c>
+      <c r="E26">
+        <v>-0.04476071639833489</v>
+      </c>
+      <c r="F26">
+        <v>-0.02788635326579825</v>
+      </c>
+      <c r="G26">
+        <v>0.009828195091443172</v>
+      </c>
+      <c r="H26">
+        <v>-0.05184188998783592</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05480988255916976</v>
+        <v>0.06265325967436008</v>
       </c>
       <c r="C28">
-        <v>-0.06815814423571112</v>
+        <v>0.09258647268476818</v>
       </c>
       <c r="D28">
-        <v>0.3105895364380372</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.3047864925332777</v>
+      </c>
+      <c r="E28">
+        <v>-0.03192209904665019</v>
+      </c>
+      <c r="F28">
+        <v>-0.05496796265183123</v>
+      </c>
+      <c r="G28">
+        <v>-0.03456854352595273</v>
+      </c>
+      <c r="H28">
+        <v>0.04919812994816052</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04193087059351898</v>
+        <v>0.04888666661040305</v>
       </c>
       <c r="C29">
-        <v>-0.02916164106480547</v>
+        <v>0.0262005472913264</v>
       </c>
       <c r="D29">
-        <v>-0.01190616204947808</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009156691622268454</v>
+      </c>
+      <c r="E29">
+        <v>-0.06129823259732602</v>
+      </c>
+      <c r="F29">
+        <v>-0.01156590506918099</v>
+      </c>
+      <c r="G29">
+        <v>0.008520401255042401</v>
+      </c>
+      <c r="H29">
+        <v>-0.07309185958753932</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1276217823023727</v>
+        <v>0.1304747852919443</v>
       </c>
       <c r="C30">
-        <v>-0.08646971119293907</v>
+        <v>0.06119649666736614</v>
       </c>
       <c r="D30">
-        <v>-0.0995478040934214</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06993165232311137</v>
+      </c>
+      <c r="E30">
+        <v>-0.08087781607408707</v>
+      </c>
+      <c r="F30">
+        <v>0.005085835531608375</v>
+      </c>
+      <c r="G30">
+        <v>-0.08382223060539398</v>
+      </c>
+      <c r="H30">
+        <v>0.04931321106511089</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04452199533353481</v>
+        <v>0.04905307769681887</v>
       </c>
       <c r="C31">
-        <v>-0.02235780845698945</v>
+        <v>0.01402773274174523</v>
       </c>
       <c r="D31">
-        <v>-0.02364282304629688</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02937057896651224</v>
+      </c>
+      <c r="E31">
+        <v>-0.02415495163399372</v>
+      </c>
+      <c r="F31">
+        <v>-0.01239526484542538</v>
+      </c>
+      <c r="G31">
+        <v>0.02556847540057421</v>
+      </c>
+      <c r="H31">
+        <v>-0.06349156194950531</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03883180200408572</v>
+        <v>0.03895354804310756</v>
       </c>
       <c r="C32">
-        <v>-0.0265680195325147</v>
+        <v>0.02189198485033451</v>
       </c>
       <c r="D32">
-        <v>-0.02419889922071213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01223719101974383</v>
+      </c>
+      <c r="E32">
+        <v>-0.05273780775492098</v>
+      </c>
+      <c r="F32">
+        <v>0.006794487699294633</v>
+      </c>
+      <c r="G32">
+        <v>-0.0259712597734615</v>
+      </c>
+      <c r="H32">
+        <v>-0.07098161984968777</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08454328404816297</v>
+        <v>0.09625114321221168</v>
       </c>
       <c r="C33">
-        <v>-0.03962349765203671</v>
+        <v>0.02559612838407104</v>
       </c>
       <c r="D33">
-        <v>-0.06063595837693113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04677045782207063</v>
+      </c>
+      <c r="E33">
+        <v>-0.01536096994820758</v>
+      </c>
+      <c r="F33">
+        <v>-0.007022430347429338</v>
+      </c>
+      <c r="G33">
+        <v>0.008158523919708727</v>
+      </c>
+      <c r="H33">
+        <v>-0.05592094184078048</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05878951543980785</v>
+        <v>0.0638921860706753</v>
       </c>
       <c r="C34">
-        <v>-0.02560589011122188</v>
+        <v>0.01175192228858613</v>
       </c>
       <c r="D34">
-        <v>-0.05792130931939609</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05076717642787252</v>
+      </c>
+      <c r="E34">
+        <v>-0.007108048364647808</v>
+      </c>
+      <c r="F34">
+        <v>-0.01897961663395133</v>
+      </c>
+      <c r="G34">
+        <v>0.001015778073574948</v>
+      </c>
+      <c r="H34">
+        <v>-0.06243279935696247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03752228022303952</v>
+        <v>0.0396406135525096</v>
       </c>
       <c r="C35">
-        <v>-0.008505806587280946</v>
+        <v>0.003745922265514561</v>
       </c>
       <c r="D35">
-        <v>-0.01547015269507641</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01096559985347291</v>
+      </c>
+      <c r="E35">
+        <v>-0.02134005351697306</v>
+      </c>
+      <c r="F35">
+        <v>0.01386651591345172</v>
+      </c>
+      <c r="G35">
+        <v>0.007993992784353914</v>
+      </c>
+      <c r="H35">
+        <v>-0.0139390175551325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02274508242760885</v>
+        <v>0.02887637821159318</v>
       </c>
       <c r="C36">
-        <v>-0.01750697747418502</v>
+        <v>0.01514136458712609</v>
       </c>
       <c r="D36">
-        <v>-0.02500822635227205</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01784589200167673</v>
+      </c>
+      <c r="E36">
+        <v>-0.03197898143287618</v>
+      </c>
+      <c r="F36">
+        <v>-0.02162740788565296</v>
+      </c>
+      <c r="G36">
+        <v>0.008834496423243084</v>
+      </c>
+      <c r="H36">
+        <v>-0.04488928798936728</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04232221985273411</v>
+        <v>0.04493706638747309</v>
       </c>
       <c r="C38">
-        <v>-0.001777262440246134</v>
+        <v>-0.003900843639908235</v>
       </c>
       <c r="D38">
-        <v>-0.01781286464366179</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01765691041030635</v>
+      </c>
+      <c r="E38">
+        <v>-0.05163039746367593</v>
+      </c>
+      <c r="F38">
+        <v>0.004866333518593688</v>
+      </c>
+      <c r="G38">
+        <v>-0.00732904455267126</v>
+      </c>
+      <c r="H38">
+        <v>-0.03703765439731546</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09271828573856797</v>
+        <v>0.102089816300585</v>
       </c>
       <c r="C39">
-        <v>-0.06920885718168071</v>
+        <v>0.04928138816055007</v>
       </c>
       <c r="D39">
-        <v>-0.05367016266882044</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06210633643999866</v>
+      </c>
+      <c r="E39">
+        <v>-0.005710694105735899</v>
+      </c>
+      <c r="F39">
+        <v>0.002162602196088299</v>
+      </c>
+      <c r="G39">
+        <v>-0.03858415531651813</v>
+      </c>
+      <c r="H39">
+        <v>-0.05172702966909592</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07648768590732463</v>
+        <v>0.06958601864818699</v>
       </c>
       <c r="C40">
-        <v>-0.03051359168016076</v>
+        <v>0.01164606731399043</v>
       </c>
       <c r="D40">
-        <v>-0.005026826470432217</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01521160572730108</v>
+      </c>
+      <c r="E40">
+        <v>-0.02697798562727737</v>
+      </c>
+      <c r="F40">
+        <v>0.05289500313561656</v>
+      </c>
+      <c r="G40">
+        <v>-0.04212092340572739</v>
+      </c>
+      <c r="H40">
+        <v>0.0901440209826537</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04265868019249958</v>
+        <v>0.04440165810304192</v>
       </c>
       <c r="C41">
-        <v>-0.005052687170616255</v>
+        <v>-0.003236607139173261</v>
       </c>
       <c r="D41">
-        <v>-0.03265218907694137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03343603900771812</v>
+      </c>
+      <c r="E41">
+        <v>-0.0007768898012872151</v>
+      </c>
+      <c r="F41">
+        <v>0.01643609292163435</v>
+      </c>
+      <c r="G41">
+        <v>-0.00759239000327994</v>
+      </c>
+      <c r="H41">
+        <v>-0.0340702597657828</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05095292839616242</v>
+        <v>0.05962479633371138</v>
       </c>
       <c r="C43">
-        <v>-0.02543817665241449</v>
+        <v>0.01793216038092778</v>
       </c>
       <c r="D43">
-        <v>-0.01636191595423111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02547340704674746</v>
+      </c>
+      <c r="E43">
+        <v>-0.02127749879636365</v>
+      </c>
+      <c r="F43">
+        <v>-0.01312528542279352</v>
+      </c>
+      <c r="G43">
+        <v>0.02054703466779967</v>
+      </c>
+      <c r="H43">
+        <v>-0.05938949500593913</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09783299479797143</v>
+        <v>0.09768494667289813</v>
       </c>
       <c r="C44">
-        <v>-0.08659727777810815</v>
+        <v>0.06299040556832451</v>
       </c>
       <c r="D44">
-        <v>-0.07675604538724155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05705266232072847</v>
+      </c>
+      <c r="E44">
+        <v>-0.08064533107393206</v>
+      </c>
+      <c r="F44">
+        <v>-0.06475485170225258</v>
+      </c>
+      <c r="G44">
+        <v>-0.03121911339533339</v>
+      </c>
+      <c r="H44">
+        <v>-0.02855860336709227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02600349052972585</v>
+        <v>0.03476913192466829</v>
       </c>
       <c r="C46">
-        <v>-0.0154589170669148</v>
+        <v>0.012058391025137</v>
       </c>
       <c r="D46">
-        <v>-0.02559247724446228</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03438586356002062</v>
+      </c>
+      <c r="E46">
+        <v>-0.03538184353880647</v>
+      </c>
+      <c r="F46">
+        <v>-0.01726998742741986</v>
+      </c>
+      <c r="G46">
+        <v>0.01001287446124709</v>
+      </c>
+      <c r="H46">
+        <v>-0.0298288985073082</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03087914650376692</v>
+        <v>0.03848433100884029</v>
       </c>
       <c r="C47">
-        <v>-0.02370092970707918</v>
+        <v>0.02033894838808341</v>
       </c>
       <c r="D47">
-        <v>-0.008197394728375107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.007709398912165428</v>
+      </c>
+      <c r="E47">
+        <v>-0.04600229686677469</v>
+      </c>
+      <c r="F47">
+        <v>-0.01094197544730438</v>
+      </c>
+      <c r="G47">
+        <v>0.04426172363084478</v>
+      </c>
+      <c r="H47">
+        <v>-0.03057936879407087</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03368309052127537</v>
+        <v>0.03810741829642603</v>
       </c>
       <c r="C48">
-        <v>-0.01741577378588575</v>
+        <v>0.01055680240407334</v>
       </c>
       <c r="D48">
-        <v>-0.03215523365604215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02061791447573723</v>
+      </c>
+      <c r="E48">
+        <v>-0.03995002810379297</v>
+      </c>
+      <c r="F48">
+        <v>-0.007005593852465873</v>
+      </c>
+      <c r="G48">
+        <v>-0.01296954802220507</v>
+      </c>
+      <c r="H48">
+        <v>-0.04086668159677977</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1620432553990181</v>
+        <v>0.1894747262563614</v>
       </c>
       <c r="C49">
-        <v>-0.04937738349210702</v>
+        <v>0.03040346758990819</v>
       </c>
       <c r="D49">
-        <v>0.008143891019075493</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02952698929929867</v>
+      </c>
+      <c r="E49">
+        <v>0.1572854815201719</v>
+      </c>
+      <c r="F49">
+        <v>-0.05606904668878582</v>
+      </c>
+      <c r="G49">
+        <v>0.05864689004969888</v>
+      </c>
+      <c r="H49">
+        <v>0.2258714022099453</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04010714150502535</v>
+        <v>0.04605881941662885</v>
       </c>
       <c r="C50">
-        <v>-0.01997821755778858</v>
+        <v>0.01389081455464913</v>
       </c>
       <c r="D50">
-        <v>-0.03989718932796201</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0332022341321957</v>
+      </c>
+      <c r="E50">
+        <v>-0.04303898703280892</v>
+      </c>
+      <c r="F50">
+        <v>-0.01443188164108922</v>
+      </c>
+      <c r="G50">
+        <v>0.02175386809021952</v>
+      </c>
+      <c r="H50">
+        <v>-0.06543754311422217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02818044162783459</v>
+        <v>0.02986420283860441</v>
       </c>
       <c r="C51">
-        <v>-0.01002304953062095</v>
+        <v>0.00380893808335901</v>
       </c>
       <c r="D51">
-        <v>-0.01009812558470433</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0118121233897041</v>
+      </c>
+      <c r="E51">
+        <v>-0.01239466095734522</v>
+      </c>
+      <c r="F51">
+        <v>-0.01548117009036365</v>
+      </c>
+      <c r="G51">
+        <v>0.000190628469035603</v>
+      </c>
+      <c r="H51">
+        <v>0.0008123096578143542</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1550051247076184</v>
+        <v>0.1633230181166899</v>
       </c>
       <c r="C53">
-        <v>-0.07218642700512246</v>
+        <v>0.05026745990202657</v>
       </c>
       <c r="D53">
-        <v>-0.009252275449094786</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01962594838882786</v>
+      </c>
+      <c r="E53">
+        <v>0.03045862483288598</v>
+      </c>
+      <c r="F53">
+        <v>-0.01535679877273247</v>
+      </c>
+      <c r="G53">
+        <v>0.02399117548883104</v>
+      </c>
+      <c r="H53">
+        <v>-0.1758999318344102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05787708524231308</v>
+        <v>0.05819169009910662</v>
       </c>
       <c r="C54">
-        <v>-0.02320756896284375</v>
+        <v>0.01330017527296291</v>
       </c>
       <c r="D54">
-        <v>-0.02077594325031452</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01568437253435995</v>
+      </c>
+      <c r="E54">
+        <v>-0.04685723190998649</v>
+      </c>
+      <c r="F54">
+        <v>-0.005525013676517752</v>
+      </c>
+      <c r="G54">
+        <v>-0.0157815516641945</v>
+      </c>
+      <c r="H54">
+        <v>-0.04869229430377304</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09990369071206455</v>
+        <v>0.104184495379597</v>
       </c>
       <c r="C55">
-        <v>-0.0493302893155541</v>
+        <v>0.03372082681657129</v>
       </c>
       <c r="D55">
-        <v>-0.02017258805473095</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02396846928879513</v>
+      </c>
+      <c r="E55">
+        <v>-0.009862489719381275</v>
+      </c>
+      <c r="F55">
+        <v>-0.01384124661780848</v>
+      </c>
+      <c r="G55">
+        <v>0.01640712566168997</v>
+      </c>
+      <c r="H55">
+        <v>-0.1556433033206547</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1515368935144536</v>
+        <v>0.161795173391054</v>
       </c>
       <c r="C56">
-        <v>-0.08387085907721793</v>
+        <v>0.06070827107294655</v>
       </c>
       <c r="D56">
-        <v>-0.01762068976287049</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02424866332665542</v>
+      </c>
+      <c r="E56">
+        <v>0.02227685242103227</v>
+      </c>
+      <c r="F56">
+        <v>-0.0319597064486984</v>
+      </c>
+      <c r="G56">
+        <v>0.03926666845853384</v>
+      </c>
+      <c r="H56">
+        <v>-0.1768422481152385</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1302577284719805</v>
+        <v>0.1006970382158972</v>
       </c>
       <c r="C58">
-        <v>0.005044589326959873</v>
+        <v>-0.04527457228497054</v>
       </c>
       <c r="D58">
-        <v>-0.0305381412406125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03202621051447109</v>
+      </c>
+      <c r="E58">
+        <v>-0.1422031497263311</v>
+      </c>
+      <c r="F58">
+        <v>0.002732175142075409</v>
+      </c>
+      <c r="G58">
+        <v>0.01579461037298331</v>
+      </c>
+      <c r="H58">
+        <v>0.1991975025078971</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1239201821261454</v>
+        <v>0.1381024485676512</v>
       </c>
       <c r="C59">
-        <v>-0.0741332718036127</v>
+        <v>0.09871585765946947</v>
       </c>
       <c r="D59">
-        <v>0.3687592072848667</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3624423919350491</v>
+      </c>
+      <c r="E59">
+        <v>-0.02569334169668887</v>
+      </c>
+      <c r="F59">
+        <v>-0.01252145218150799</v>
+      </c>
+      <c r="G59">
+        <v>0.01560270230569686</v>
+      </c>
+      <c r="H59">
+        <v>-0.000802717730281319</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.207192146086452</v>
+        <v>0.2345505311910892</v>
       </c>
       <c r="C60">
-        <v>-0.09055240188155834</v>
+        <v>0.06238480093550524</v>
       </c>
       <c r="D60">
-        <v>-0.02085512702819137</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04517904226534182</v>
+      </c>
+      <c r="E60">
+        <v>0.1007356634863352</v>
+      </c>
+      <c r="F60">
+        <v>-0.0543632868727045</v>
+      </c>
+      <c r="G60">
+        <v>-0.02271239276724194</v>
+      </c>
+      <c r="H60">
+        <v>0.1467583794087073</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08322268768825528</v>
+        <v>0.09010500680484879</v>
       </c>
       <c r="C61">
-        <v>-0.04976207183462041</v>
+        <v>0.03573109541363747</v>
       </c>
       <c r="D61">
-        <v>-0.04435938029124736</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04204941414053808</v>
+      </c>
+      <c r="E61">
+        <v>-0.002474488233187457</v>
+      </c>
+      <c r="F61">
+        <v>-0.00318397650190947</v>
+      </c>
+      <c r="G61">
+        <v>0.00182377786584448</v>
+      </c>
+      <c r="H61">
+        <v>-0.06479205231922006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.131878803029254</v>
+        <v>0.139067408666214</v>
       </c>
       <c r="C62">
-        <v>-0.06020395019389316</v>
+        <v>0.03755155891246298</v>
       </c>
       <c r="D62">
-        <v>-0.01787268535615505</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03262786224362883</v>
+      </c>
+      <c r="E62">
+        <v>0.05844693171172839</v>
+      </c>
+      <c r="F62">
+        <v>-0.01027728486632635</v>
+      </c>
+      <c r="G62">
+        <v>-0.005771656545787178</v>
+      </c>
+      <c r="H62">
+        <v>-0.1730160175604552</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05216772633888105</v>
+        <v>0.0516988722099762</v>
       </c>
       <c r="C63">
-        <v>-0.02332604297816083</v>
+        <v>0.01309699623338712</v>
       </c>
       <c r="D63">
-        <v>-0.02398818994532872</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02130953398310629</v>
+      </c>
+      <c r="E63">
+        <v>-0.04986896945651394</v>
+      </c>
+      <c r="F63">
+        <v>0.005578707704888986</v>
+      </c>
+      <c r="G63">
+        <v>-0.01901350023152863</v>
+      </c>
+      <c r="H63">
+        <v>-0.05084164303468297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1036996507046081</v>
+        <v>0.1077272543944829</v>
       </c>
       <c r="C64">
-        <v>-0.0305991737732446</v>
+        <v>0.01553107659802066</v>
       </c>
       <c r="D64">
-        <v>-0.04139771222600953</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03127326682776407</v>
+      </c>
+      <c r="E64">
+        <v>-0.03156641515565227</v>
+      </c>
+      <c r="F64">
+        <v>-0.03947615470357354</v>
+      </c>
+      <c r="G64">
+        <v>-0.0482385478799139</v>
+      </c>
+      <c r="H64">
+        <v>-0.04716345251557784</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1269109828865381</v>
+        <v>0.1266108647498045</v>
       </c>
       <c r="C65">
-        <v>-0.0579367094305543</v>
+        <v>0.03979283165729179</v>
       </c>
       <c r="D65">
-        <v>0.006796954958774917</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.009263399981972073</v>
+      </c>
+      <c r="E65">
+        <v>0.001482613074679332</v>
+      </c>
+      <c r="F65">
+        <v>-0.05163425745706572</v>
+      </c>
+      <c r="G65">
+        <v>-0.06428028256579035</v>
+      </c>
+      <c r="H65">
+        <v>0.1470048213245184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1475608951415762</v>
+        <v>0.1540696654797688</v>
       </c>
       <c r="C66">
-        <v>-0.06719234438089829</v>
+        <v>0.03860462617859907</v>
       </c>
       <c r="D66">
-        <v>-0.1069130674996764</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09709328092060149</v>
+      </c>
+      <c r="E66">
+        <v>0.02205446925948963</v>
+      </c>
+      <c r="F66">
+        <v>-0.006885555845920136</v>
+      </c>
+      <c r="G66">
+        <v>-0.04285279195904221</v>
+      </c>
+      <c r="H66">
+        <v>-0.1194571080371461</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.0751853927289418</v>
+        <v>0.08509796070071324</v>
       </c>
       <c r="C67">
-        <v>-0.009392517623415971</v>
+        <v>0.0009660612888597476</v>
       </c>
       <c r="D67">
-        <v>-0.02079679363661227</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0287948568910202</v>
+      </c>
+      <c r="E67">
+        <v>-0.0185087813868841</v>
+      </c>
+      <c r="F67">
+        <v>-0.02131326151476661</v>
+      </c>
+      <c r="G67">
+        <v>0.01025586404186198</v>
+      </c>
+      <c r="H67">
+        <v>-0.04055008500527154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.060324112918048</v>
+        <v>0.05835198214385683</v>
       </c>
       <c r="C68">
-        <v>-0.04841964442379156</v>
+        <v>0.06854555501604649</v>
       </c>
       <c r="D68">
-        <v>0.2545785939167117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2669037298958815</v>
+      </c>
+      <c r="E68">
+        <v>-0.03923214952653339</v>
+      </c>
+      <c r="F68">
+        <v>-0.01480241788333187</v>
+      </c>
+      <c r="G68">
+        <v>0.01038758250193028</v>
+      </c>
+      <c r="H68">
+        <v>-0.006581327302488237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05193053811617099</v>
+        <v>0.05312287176092943</v>
       </c>
       <c r="C69">
-        <v>-0.01509784769484927</v>
+        <v>0.005110891221768269</v>
       </c>
       <c r="D69">
-        <v>-0.02291190316496543</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01661274424270382</v>
+      </c>
+      <c r="E69">
+        <v>-0.02714724477959958</v>
+      </c>
+      <c r="F69">
+        <v>0.00730982363115481</v>
+      </c>
+      <c r="G69">
+        <v>0.02738852425032526</v>
+      </c>
+      <c r="H69">
+        <v>-0.0507428276188457</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.003391848528289567</v>
+        <v>0.02642529796055731</v>
       </c>
       <c r="C70">
-        <v>0.009376604705764787</v>
+        <v>-0.00368886440732765</v>
       </c>
       <c r="D70">
-        <v>0.005050131321332054</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.0001339373872125718</v>
+      </c>
+      <c r="E70">
+        <v>0.02278447185308758</v>
+      </c>
+      <c r="F70">
+        <v>-0.01068019738518317</v>
+      </c>
+      <c r="G70">
+        <v>0.02280580736886141</v>
+      </c>
+      <c r="H70">
+        <v>0.02160972715134978</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.0593684393680782</v>
+        <v>0.06060022068911908</v>
       </c>
       <c r="C71">
-        <v>-0.04821347211449632</v>
+        <v>0.07413640459435218</v>
       </c>
       <c r="D71">
-        <v>0.2922412544582105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2924343040687295</v>
+      </c>
+      <c r="E71">
+        <v>-0.03483989071807234</v>
+      </c>
+      <c r="F71">
+        <v>-0.04259487763391384</v>
+      </c>
+      <c r="G71">
+        <v>-2.375719408235639e-05</v>
+      </c>
+      <c r="H71">
+        <v>-0.007632325930870516</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1424501560266108</v>
+        <v>0.1444240654214796</v>
       </c>
       <c r="C72">
-        <v>-0.05858303312952883</v>
+        <v>0.03270849120771433</v>
       </c>
       <c r="D72">
-        <v>-0.004336342589694037</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.001689837760524493</v>
+      </c>
+      <c r="E72">
+        <v>0.0819139733601655</v>
+      </c>
+      <c r="F72">
+        <v>0.169559382580076</v>
+      </c>
+      <c r="G72">
+        <v>-0.115942530754106</v>
+      </c>
+      <c r="H72">
+        <v>-0.01893233411233938</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2854178274573009</v>
+        <v>0.2889446157666021</v>
       </c>
       <c r="C73">
-        <v>-0.09444389650199476</v>
+        <v>0.03434747121452427</v>
       </c>
       <c r="D73">
-        <v>-0.04469094554440848</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09208101559418888</v>
+      </c>
+      <c r="E73">
+        <v>0.221735852836764</v>
+      </c>
+      <c r="F73">
+        <v>-0.0933871594311886</v>
+      </c>
+      <c r="G73">
+        <v>0.1304046220752724</v>
+      </c>
+      <c r="H73">
+        <v>0.503949420252642</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.08156453055924234</v>
+        <v>0.09174594444280869</v>
       </c>
       <c r="C74">
-        <v>-0.07493780327968795</v>
+        <v>0.06019510043056186</v>
       </c>
       <c r="D74">
-        <v>-0.009900491793890924</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03179901388085257</v>
+      </c>
+      <c r="E74">
+        <v>0.002922867793013847</v>
+      </c>
+      <c r="F74">
+        <v>-0.001174632913659062</v>
+      </c>
+      <c r="G74">
+        <v>0.05532008971676357</v>
+      </c>
+      <c r="H74">
+        <v>-0.112668612167083</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09684774661694694</v>
+        <v>0.1019243653891566</v>
       </c>
       <c r="C75">
-        <v>-0.0478070137918664</v>
+        <v>0.02683907209841174</v>
       </c>
       <c r="D75">
-        <v>-0.008803871881236205</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01557693610141844</v>
+      </c>
+      <c r="E75">
+        <v>-0.002202529929248888</v>
+      </c>
+      <c r="F75">
+        <v>-0.02171409127467456</v>
+      </c>
+      <c r="G75">
+        <v>0.02765802370000723</v>
+      </c>
+      <c r="H75">
+        <v>-0.1090996415264249</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1321602442686886</v>
+        <v>0.1424509093857687</v>
       </c>
       <c r="C76">
-        <v>-0.07855960278189468</v>
+        <v>0.05701881546953611</v>
       </c>
       <c r="D76">
-        <v>-0.04335558469059609</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04761142526775397</v>
+      </c>
+      <c r="E76">
+        <v>-0.01749134753959643</v>
+      </c>
+      <c r="F76">
+        <v>-0.04798522120676399</v>
+      </c>
+      <c r="G76">
+        <v>0.02042146945373931</v>
+      </c>
+      <c r="H76">
+        <v>-0.2055392681421763</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1175298395870455</v>
+        <v>0.1069229609101919</v>
       </c>
       <c r="C77">
-        <v>-0.007858316732445914</v>
+        <v>-0.01784019382961195</v>
       </c>
       <c r="D77">
-        <v>-0.07514122584142696</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.02959299958523217</v>
+      </c>
+      <c r="E77">
+        <v>-0.019721865152831</v>
+      </c>
+      <c r="F77">
+        <v>-0.09228425676576192</v>
+      </c>
+      <c r="G77">
+        <v>-0.8937649901236632</v>
+      </c>
+      <c r="H77">
+        <v>0.08542941838328354</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1067419725266912</v>
+        <v>0.1451696673975011</v>
       </c>
       <c r="C78">
-        <v>-0.03551277345312167</v>
+        <v>0.03025669960887787</v>
       </c>
       <c r="D78">
-        <v>-0.08474799870033274</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08100201293802937</v>
+      </c>
+      <c r="E78">
+        <v>-0.05518439835624722</v>
+      </c>
+      <c r="F78">
+        <v>-0.05398483577973462</v>
+      </c>
+      <c r="G78">
+        <v>-0.08403431908703927</v>
+      </c>
+      <c r="H78">
+        <v>0.02531505533920276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.148582819426383</v>
+        <v>0.151469595877541</v>
       </c>
       <c r="C79">
-        <v>-0.06731355736530402</v>
+        <v>0.0397701884600321</v>
       </c>
       <c r="D79">
-        <v>-0.02498010219302867</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02793779985186041</v>
+      </c>
+      <c r="E79">
+        <v>0.01646420288987126</v>
+      </c>
+      <c r="F79">
+        <v>-0.02153562126769413</v>
+      </c>
+      <c r="G79">
+        <v>0.04505117921281884</v>
+      </c>
+      <c r="H79">
+        <v>-0.1610214537799889</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04205990598703074</v>
+        <v>0.04327906143625841</v>
       </c>
       <c r="C80">
-        <v>-0.01960382420102637</v>
+        <v>0.01463261128751591</v>
       </c>
       <c r="D80">
-        <v>-0.02807133621717002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01225195956842233</v>
+      </c>
+      <c r="E80">
+        <v>0.02968493787555753</v>
+      </c>
+      <c r="F80">
+        <v>-0.00921144300558928</v>
+      </c>
+      <c r="G80">
+        <v>0.02538021246631418</v>
+      </c>
+      <c r="H80">
+        <v>-0.03847902137634629</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1187350039075735</v>
+        <v>0.1205928450707845</v>
       </c>
       <c r="C81">
-        <v>-0.05930318476164829</v>
+        <v>0.03678332209966772</v>
       </c>
       <c r="D81">
-        <v>-0.03207142128913504</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02525473078902321</v>
+      </c>
+      <c r="E81">
+        <v>-0.008991163647339725</v>
+      </c>
+      <c r="F81">
+        <v>-0.02012687246175416</v>
+      </c>
+      <c r="G81">
+        <v>0.06129471608847861</v>
+      </c>
+      <c r="H81">
+        <v>-0.1491306011569745</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1299812164006998</v>
+        <v>0.1313806270172111</v>
       </c>
       <c r="C82">
-        <v>-0.07129185171293261</v>
+        <v>0.04982427871392075</v>
       </c>
       <c r="D82">
-        <v>-0.02051001281078411</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02978504034171697</v>
+      </c>
+      <c r="E82">
+        <v>0.01904549776564262</v>
+      </c>
+      <c r="F82">
+        <v>-0.04992210292036445</v>
+      </c>
+      <c r="G82">
+        <v>0.05656110968699524</v>
+      </c>
+      <c r="H82">
+        <v>-0.2071658558281497</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07340012798705627</v>
+        <v>0.08568846344336029</v>
       </c>
       <c r="C83">
-        <v>0.01948737358218329</v>
+        <v>-0.03112441031054205</v>
       </c>
       <c r="D83">
-        <v>-0.02768573993060016</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02979236171472735</v>
+      </c>
+      <c r="E83">
+        <v>-0.0243905851787068</v>
+      </c>
+      <c r="F83">
+        <v>-0.06075233410008546</v>
+      </c>
+      <c r="G83">
+        <v>0.07989793738983599</v>
+      </c>
+      <c r="H83">
+        <v>0.0467439644570927</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02980139222876308</v>
+        <v>0.03714887645045573</v>
       </c>
       <c r="C84">
-        <v>-0.02790023177308435</v>
+        <v>0.02194580487180192</v>
       </c>
       <c r="D84">
-        <v>-0.02481733248630432</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03241669090493426</v>
+      </c>
+      <c r="E84">
+        <v>-0.02942576482274505</v>
+      </c>
+      <c r="F84">
+        <v>0.05035132895625881</v>
+      </c>
+      <c r="G84">
+        <v>0.06580576126882559</v>
+      </c>
+      <c r="H84">
+        <v>-0.006768838570108801</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1210297021912782</v>
+        <v>0.1228039541372274</v>
       </c>
       <c r="C85">
-        <v>-0.04676918158778741</v>
+        <v>0.02517269640824938</v>
       </c>
       <c r="D85">
-        <v>-0.02533863132004115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02385765574564899</v>
+      </c>
+      <c r="E85">
+        <v>-0.01887904425077281</v>
+      </c>
+      <c r="F85">
+        <v>-0.04366327182831267</v>
+      </c>
+      <c r="G85">
+        <v>0.04262262041329358</v>
+      </c>
+      <c r="H85">
+        <v>-0.1515229734562198</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05459733669141945</v>
+        <v>0.05837748234751944</v>
       </c>
       <c r="C86">
-        <v>-0.02063606122313385</v>
+        <v>0.01046914979824356</v>
       </c>
       <c r="D86">
-        <v>-0.03384140690949293</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03135949791457494</v>
+      </c>
+      <c r="E86">
+        <v>-0.05578749648452028</v>
+      </c>
+      <c r="F86">
+        <v>-0.02494567613697241</v>
+      </c>
+      <c r="G86">
+        <v>0.02682134907605433</v>
+      </c>
+      <c r="H86">
+        <v>0.01242786494268586</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1181717036945107</v>
+        <v>0.1223787982817685</v>
       </c>
       <c r="C87">
-        <v>-0.06334105649860589</v>
+        <v>0.03342621945830949</v>
       </c>
       <c r="D87">
-        <v>-0.08100974679324632</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07350023166262681</v>
+      </c>
+      <c r="E87">
+        <v>-0.01825989464268353</v>
+      </c>
+      <c r="F87">
+        <v>-0.01235435422144825</v>
+      </c>
+      <c r="G87">
+        <v>-0.1353370240813794</v>
+      </c>
+      <c r="H87">
+        <v>0.02615765592154453</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05324841522939749</v>
+        <v>0.06086741684472172</v>
       </c>
       <c r="C88">
-        <v>-0.02881736645420059</v>
+        <v>0.0202355483284348</v>
       </c>
       <c r="D88">
-        <v>-0.02305919817005502</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03584503353061078</v>
+      </c>
+      <c r="E88">
+        <v>-0.01671460047631787</v>
+      </c>
+      <c r="F88">
+        <v>-0.009806770705103829</v>
+      </c>
+      <c r="G88">
+        <v>-0.001532875081082216</v>
+      </c>
+      <c r="H88">
+        <v>-0.05380260044817066</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08952470114309578</v>
+        <v>0.09636199498992562</v>
       </c>
       <c r="C89">
-        <v>-0.0696317586090809</v>
+        <v>0.0971075176223308</v>
       </c>
       <c r="D89">
-        <v>0.3290091880327235</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3482100627544781</v>
+      </c>
+      <c r="E89">
+        <v>-0.07172053029086735</v>
+      </c>
+      <c r="F89">
+        <v>-0.07990610442218882</v>
+      </c>
+      <c r="G89">
+        <v>0.01789168253303871</v>
+      </c>
+      <c r="H89">
+        <v>-0.007866820872554494</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07602153485575827</v>
+        <v>0.07877046839726295</v>
       </c>
       <c r="C90">
-        <v>-0.05780495546242528</v>
+        <v>0.08038188693703188</v>
       </c>
       <c r="D90">
-        <v>0.3117059963024196</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.3029258901369974</v>
+      </c>
+      <c r="E90">
+        <v>-0.0661442095382837</v>
+      </c>
+      <c r="F90">
+        <v>-0.002964401722931346</v>
+      </c>
+      <c r="G90">
+        <v>0.002222690604475094</v>
+      </c>
+      <c r="H90">
+        <v>-0.0001865830098258379</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08903705643661464</v>
+        <v>0.09118436332848812</v>
       </c>
       <c r="C91">
-        <v>-0.05106962999847936</v>
+        <v>0.03091535685462329</v>
       </c>
       <c r="D91">
-        <v>-0.02565413304666892</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03223764528293802</v>
+      </c>
+      <c r="E91">
+        <v>-0.006933003170425877</v>
+      </c>
+      <c r="F91">
+        <v>-0.004676149261012761</v>
+      </c>
+      <c r="G91">
+        <v>0.0529455106801503</v>
+      </c>
+      <c r="H91">
+        <v>-0.08067074577420726</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07676934856503176</v>
+        <v>0.07936310037598794</v>
       </c>
       <c r="C92">
-        <v>-0.07318818443432989</v>
+        <v>0.09950605044636368</v>
       </c>
       <c r="D92">
-        <v>0.3359578388624627</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3407202009219066</v>
+      </c>
+      <c r="E92">
+        <v>-0.03903020892835973</v>
+      </c>
+      <c r="F92">
+        <v>-0.04628433532887616</v>
+      </c>
+      <c r="G92">
+        <v>-0.01718390271536299</v>
+      </c>
+      <c r="H92">
+        <v>-0.01808340900486386</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06741099425937329</v>
+        <v>0.07572268214388839</v>
       </c>
       <c r="C93">
-        <v>-0.06449013248956677</v>
+        <v>0.0928706610439449</v>
       </c>
       <c r="D93">
-        <v>0.3065957834870081</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.3036409062246249</v>
+      </c>
+      <c r="E93">
+        <v>-0.0222356190099025</v>
+      </c>
+      <c r="F93">
+        <v>-0.03519307912038058</v>
+      </c>
+      <c r="G93">
+        <v>-0.02067760235748973</v>
+      </c>
+      <c r="H93">
+        <v>0.01191558486083648</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1356554217879571</v>
+        <v>0.1290802760791874</v>
       </c>
       <c r="C94">
-        <v>-0.0447709423720826</v>
+        <v>0.01409978458706176</v>
       </c>
       <c r="D94">
-        <v>-0.03948798602419514</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0471736107192667</v>
+      </c>
+      <c r="E94">
+        <v>0.01721458386556286</v>
+      </c>
+      <c r="F94">
+        <v>-0.013569774728118</v>
+      </c>
+      <c r="G94">
+        <v>0.06714941553430567</v>
+      </c>
+      <c r="H94">
+        <v>-0.09619137338767896</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1230110956350674</v>
+        <v>0.1284764936202385</v>
       </c>
       <c r="C95">
-        <v>-0.02552045897037819</v>
+        <v>-0.001065818770943415</v>
       </c>
       <c r="D95">
-        <v>-0.06438617601244029</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.0665589788098734</v>
+      </c>
+      <c r="E95">
+        <v>-0.0108232599653634</v>
+      </c>
+      <c r="F95">
+        <v>-0.03734664127948578</v>
+      </c>
+      <c r="G95">
+        <v>-0.01527699487849675</v>
+      </c>
+      <c r="H95">
+        <v>0.03959062450362178</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2206046150725262</v>
+        <v>0.204338544387242</v>
       </c>
       <c r="C97">
-        <v>-0.04097982901122544</v>
+        <v>-0.002967576381405802</v>
       </c>
       <c r="D97">
-        <v>0.1070733837631485</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.08049944740811482</v>
+      </c>
+      <c r="E97">
+        <v>0.1969098757501556</v>
+      </c>
+      <c r="F97">
+        <v>0.90715602823584</v>
+      </c>
+      <c r="G97">
+        <v>-0.06039141766101834</v>
+      </c>
+      <c r="H97">
+        <v>-0.02031242879076349</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2499551690186473</v>
+        <v>0.2758469619600254</v>
       </c>
       <c r="C98">
-        <v>-0.06005483555107447</v>
+        <v>0.02241942648233862</v>
       </c>
       <c r="D98">
-        <v>-0.03221866089138565</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05223728834459425</v>
+      </c>
+      <c r="E98">
+        <v>0.1871728807896293</v>
+      </c>
+      <c r="F98">
+        <v>-0.06735573817639505</v>
+      </c>
+      <c r="G98">
+        <v>0.2290938047950466</v>
+      </c>
+      <c r="H98">
+        <v>0.2728470996379672</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.402925591620387</v>
+        <v>0.271417338901809</v>
       </c>
       <c r="C99">
-        <v>0.8975708045924149</v>
+        <v>-0.9293518135478909</v>
       </c>
       <c r="D99">
-        <v>0.05404354193915621</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.170082853177604</v>
+      </c>
+      <c r="E99">
+        <v>-0.07154637741669569</v>
+      </c>
+      <c r="F99">
+        <v>-0.05869507109408878</v>
+      </c>
+      <c r="G99">
+        <v>0.02297537814459512</v>
+      </c>
+      <c r="H99">
+        <v>-0.0723395907101881</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04177384327263385</v>
+        <v>0.04882249920956584</v>
       </c>
       <c r="C101">
-        <v>-0.02929589417262743</v>
+        <v>0.02644031002838064</v>
       </c>
       <c r="D101">
-        <v>-0.01251269081263684</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009320289958816392</v>
+      </c>
+      <c r="E101">
+        <v>-0.06124410991612794</v>
+      </c>
+      <c r="F101">
+        <v>-0.01124571327817541</v>
+      </c>
+      <c r="G101">
+        <v>0.008900818208382592</v>
+      </c>
+      <c r="H101">
+        <v>-0.07190695462624008</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
